--- a/变更审批单1.xlsx
+++ b/变更审批单1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\SoftwareProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917391DD-AA83-4FCB-839D-D22F6DE9A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C64D72-8DFE-4931-8D7A-8647E12BFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1440" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="4095" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,22 +189,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,19 +205,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,7 +497,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,11 +509,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -561,54 +544,54 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5">
         <v>1001</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -625,12 +608,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -641,42 +624,37 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A15:B15"/>
@@ -688,6 +666,11 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
